--- a/doc/meta5.xlsx
+++ b/doc/meta5.xlsx
@@ -8,13 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
+    <sheet name="Arkusz2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="23">
   <si>
     <t>TS</t>
   </si>
@@ -65,6 +66,24 @@
   </si>
   <si>
     <t>GA</t>
+  </si>
+  <si>
+    <t>200_20_54_15.def</t>
+  </si>
+  <si>
+    <t>GA: 260.0 264.16 269.0 2.0952326839756967</t>
+  </si>
+  <si>
+    <t>TS: 265.0 273.4 299.0 6.794605703546503</t>
+  </si>
+  <si>
+    <t>SA: 260.0 264.84 272.0 3.023243291566194</t>
+  </si>
+  <si>
+    <t>GA_TS: 259.0 262.16 266.0 1.650252505931542</t>
+  </si>
+  <si>
+    <t>GA_SA: 266.0 274.36 285.0 4.973932046178354</t>
   </si>
 </sst>
 </file>
@@ -429,10 +448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -771,21 +790,51 @@
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
+      <c r="B8" s="4">
+        <v>260</v>
+      </c>
+      <c r="C8" s="4">
+        <v>264.16000000000003</v>
+      </c>
+      <c r="D8" s="4">
+        <v>2.09</v>
+      </c>
+      <c r="E8" s="4">
+        <v>265</v>
+      </c>
+      <c r="F8" s="4">
+        <v>273.39999999999998</v>
+      </c>
+      <c r="G8" s="4">
+        <v>6.79</v>
+      </c>
+      <c r="H8" s="4">
+        <v>260</v>
+      </c>
+      <c r="I8" s="4">
+        <v>264.83999999999997</v>
+      </c>
+      <c r="J8" s="4">
+        <v>3.02</v>
+      </c>
+      <c r="K8" s="4">
+        <v>259</v>
+      </c>
+      <c r="L8" s="4">
+        <v>262.16000000000003</v>
+      </c>
+      <c r="M8" s="4">
+        <v>1.65</v>
+      </c>
+      <c r="N8" s="4">
+        <v>266</v>
+      </c>
+      <c r="O8" s="4">
+        <v>274.36</v>
+      </c>
+      <c r="P8" s="4">
+        <v>4.97</v>
+      </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -813,63 +862,63 @@
       </c>
       <c r="B10" s="4">
         <f>SUM(B3:B9)</f>
-        <v>1351</v>
+        <v>1611</v>
       </c>
       <c r="C10" s="4">
         <f>SUM(C3:C9)</f>
-        <v>1365.04</v>
+        <v>1629.2</v>
       </c>
       <c r="D10" s="4">
         <f>SUM(D3:D9)</f>
-        <v>11.29</v>
+        <v>13.379999999999999</v>
       </c>
       <c r="E10" s="4">
         <f>SUM(E3:E9)</f>
-        <v>1360</v>
+        <v>1625</v>
       </c>
       <c r="F10" s="4">
         <f>SUM(F3:F9)</f>
-        <v>1385.8799999999999</v>
+        <v>1659.2799999999997</v>
       </c>
       <c r="G10" s="4">
         <f>SUM(G3:G9)</f>
-        <v>22.68</v>
+        <v>29.47</v>
       </c>
       <c r="H10" s="4">
         <f>SUM(H3:H9)</f>
-        <v>1355</v>
+        <v>1615</v>
       </c>
       <c r="I10" s="4">
         <f>SUM(I3:I9)</f>
-        <v>1369.36</v>
+        <v>1634.1999999999998</v>
       </c>
       <c r="J10" s="4">
         <f>SUM(J3:J9)</f>
-        <v>9.6999999999999993</v>
+        <v>12.719999999999999</v>
       </c>
       <c r="K10" s="4">
         <f>SUM(K3:K9)</f>
-        <v>1352</v>
+        <v>1611</v>
       </c>
       <c r="L10" s="4">
         <f>SUM(L3:L9)</f>
-        <v>1360.84</v>
+        <v>1623</v>
       </c>
       <c r="M10" s="4">
         <f>SUM(M3:M9)</f>
-        <v>6.18</v>
+        <v>7.83</v>
       </c>
       <c r="N10" s="4">
         <f>SUM(N3:N9)</f>
-        <v>1357</v>
+        <v>1623</v>
       </c>
       <c r="O10" s="4">
         <f>SUM(O3:O9)</f>
-        <v>1382.76</v>
+        <v>1657.12</v>
       </c>
       <c r="P10" s="4">
         <f>SUM(P3:P9)</f>
-        <v>16.420000000000002</v>
+        <v>21.39</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -878,63 +927,93 @@
       </c>
       <c r="B11" s="4">
         <f>AVERAGE(B3:B9)</f>
-        <v>270.2</v>
+        <v>268.5</v>
       </c>
       <c r="C11" s="4">
         <f t="shared" ref="C11:J11" si="0">AVERAGE(C3:C9)</f>
-        <v>273.00799999999998</v>
+        <v>271.53333333333336</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" si="0"/>
-        <v>2.258</v>
+        <v>2.23</v>
       </c>
       <c r="E11" s="4">
         <f t="shared" si="0"/>
-        <v>272</v>
+        <v>270.83333333333331</v>
       </c>
       <c r="F11" s="4">
         <f t="shared" si="0"/>
-        <v>277.17599999999999</v>
+        <v>276.54666666666662</v>
       </c>
       <c r="G11" s="4">
         <f t="shared" si="0"/>
-        <v>4.5359999999999996</v>
+        <v>4.9116666666666662</v>
       </c>
       <c r="H11" s="4">
         <f t="shared" si="0"/>
-        <v>271</v>
+        <v>269.16666666666669</v>
       </c>
       <c r="I11" s="4">
         <f t="shared" si="0"/>
-        <v>273.87199999999996</v>
+        <v>272.36666666666662</v>
       </c>
       <c r="J11" s="4">
         <f t="shared" si="0"/>
-        <v>1.94</v>
+        <v>2.1199999999999997</v>
       </c>
       <c r="K11" s="4">
         <f>AVERAGE(K3:K9)</f>
-        <v>270.39999999999998</v>
+        <v>268.5</v>
       </c>
       <c r="L11" s="4">
         <f>AVERAGE(L3:L9)</f>
-        <v>272.16800000000001</v>
+        <v>270.5</v>
       </c>
       <c r="M11" s="4">
         <f>AVERAGE(M3:M9)</f>
-        <v>1.236</v>
+        <v>1.3049999999999999</v>
       </c>
       <c r="N11" s="4">
         <f>AVERAGE(N3:N9)</f>
-        <v>271.39999999999998</v>
+        <v>270.5</v>
       </c>
       <c r="O11" s="4">
         <f>AVERAGE(O3:O9)</f>
-        <v>276.55200000000002</v>
+        <v>276.18666666666667</v>
       </c>
       <c r="P11" s="4">
         <f>AVERAGE(P3:P9)</f>
-        <v>3.2840000000000003</v>
+        <v>3.5649999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -948,4 +1027,506 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="8" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4">
+        <v>93</v>
+      </c>
+      <c r="D2" s="4">
+        <v>484</v>
+      </c>
+      <c r="E2" s="4">
+        <v>161</v>
+      </c>
+      <c r="F2" s="4">
+        <v>127</v>
+      </c>
+      <c r="G2" s="4">
+        <v>486</v>
+      </c>
+      <c r="H2" s="4">
+        <f>SUM(C2:G2)</f>
+        <v>1351</v>
+      </c>
+      <c r="I2" s="4">
+        <f>AVERAGE(C2:G2)</f>
+        <v>270.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="4">
+        <v>94.52</v>
+      </c>
+      <c r="D3" s="4">
+        <v>486.6</v>
+      </c>
+      <c r="E3" s="4">
+        <v>164</v>
+      </c>
+      <c r="F3" s="4">
+        <v>132.12</v>
+      </c>
+      <c r="G3" s="4">
+        <v>487.8</v>
+      </c>
+      <c r="H3" s="4">
+        <f>SUM(C3:G3)</f>
+        <v>1365.04</v>
+      </c>
+      <c r="I3" s="4">
+        <f>AVERAGE(C3:G3)</f>
+        <v>273.00799999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="4">
+        <v>2.64</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1.44</v>
+      </c>
+      <c r="E4" s="4">
+        <v>2.88</v>
+      </c>
+      <c r="F4" s="4">
+        <v>3.38</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0.95</v>
+      </c>
+      <c r="H4" s="4">
+        <f>SUM(C4:G4)</f>
+        <v>11.29</v>
+      </c>
+      <c r="I4" s="4">
+        <f>AVERAGE(C4:G4)</f>
+        <v>2.258</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="4">
+        <v>93</v>
+      </c>
+      <c r="D5" s="4">
+        <v>486</v>
+      </c>
+      <c r="E5" s="4">
+        <v>161</v>
+      </c>
+      <c r="F5" s="4">
+        <v>133</v>
+      </c>
+      <c r="G5" s="4">
+        <v>487</v>
+      </c>
+      <c r="H5" s="4">
+        <f>SUM(C5:G5)</f>
+        <v>1360</v>
+      </c>
+      <c r="I5" s="4">
+        <f>AVERAGE(C5:G5)</f>
+        <v>272</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="4">
+        <v>93.8</v>
+      </c>
+      <c r="D6" s="4">
+        <v>488.2</v>
+      </c>
+      <c r="E6" s="4">
+        <v>173.32</v>
+      </c>
+      <c r="F6" s="4">
+        <v>139.32</v>
+      </c>
+      <c r="G6" s="5">
+        <v>491.24</v>
+      </c>
+      <c r="H6" s="4">
+        <f>SUM(C6:G6)</f>
+        <v>1385.8799999999999</v>
+      </c>
+      <c r="I6" s="4">
+        <f>AVERAGE(C6:G6)</f>
+        <v>277.17599999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="4">
+        <v>1.63</v>
+      </c>
+      <c r="D7" s="4">
+        <v>1.32</v>
+      </c>
+      <c r="E7" s="4">
+        <v>10.84</v>
+      </c>
+      <c r="F7" s="4">
+        <v>4.18</v>
+      </c>
+      <c r="G7" s="4">
+        <v>4.71</v>
+      </c>
+      <c r="H7" s="4">
+        <f>SUM(C7:G7)</f>
+        <v>22.68</v>
+      </c>
+      <c r="I7" s="4">
+        <f>AVERAGE(C7:G7)</f>
+        <v>4.5359999999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="4">
+        <v>93</v>
+      </c>
+      <c r="D8" s="4">
+        <v>486</v>
+      </c>
+      <c r="E8" s="4">
+        <v>161</v>
+      </c>
+      <c r="F8" s="4">
+        <v>129</v>
+      </c>
+      <c r="G8" s="4">
+        <v>486</v>
+      </c>
+      <c r="H8" s="4">
+        <f>SUM(C8:G8)</f>
+        <v>1355</v>
+      </c>
+      <c r="I8" s="4">
+        <f>AVERAGE(C8:G8)</f>
+        <v>271</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="4">
+        <v>93</v>
+      </c>
+      <c r="D9" s="4">
+        <v>487.64</v>
+      </c>
+      <c r="E9" s="4">
+        <v>168.04</v>
+      </c>
+      <c r="F9" s="4">
+        <v>133.24</v>
+      </c>
+      <c r="G9" s="4">
+        <v>487.44</v>
+      </c>
+      <c r="H9" s="4">
+        <f>SUM(C9:G9)</f>
+        <v>1369.36</v>
+      </c>
+      <c r="I9" s="4">
+        <f>AVERAGE(C9:G9)</f>
+        <v>273.87199999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0.95</v>
+      </c>
+      <c r="E10" s="4">
+        <v>5.66</v>
+      </c>
+      <c r="F10" s="4">
+        <v>2.38</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0.71</v>
+      </c>
+      <c r="H10" s="4">
+        <f>SUM(C10:G10)</f>
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="I10" s="4">
+        <f>AVERAGE(C10:G10)</f>
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="4">
+        <v>93</v>
+      </c>
+      <c r="D11" s="4">
+        <v>485</v>
+      </c>
+      <c r="E11" s="4">
+        <v>161</v>
+      </c>
+      <c r="F11" s="4">
+        <v>127</v>
+      </c>
+      <c r="G11" s="4">
+        <v>486</v>
+      </c>
+      <c r="H11" s="4">
+        <f>SUM(C11:G11)</f>
+        <v>1352</v>
+      </c>
+      <c r="I11" s="4">
+        <f>AVERAGE(C11:G11)</f>
+        <v>270.39999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="4">
+        <v>93</v>
+      </c>
+      <c r="D12" s="4">
+        <v>486.24</v>
+      </c>
+      <c r="E12" s="4">
+        <v>163.08000000000001</v>
+      </c>
+      <c r="F12" s="4">
+        <v>131.19999999999999</v>
+      </c>
+      <c r="G12" s="4">
+        <v>487.32</v>
+      </c>
+      <c r="H12" s="4">
+        <f>SUM(C12:G12)</f>
+        <v>1360.84</v>
+      </c>
+      <c r="I12" s="4">
+        <f>AVERAGE(C12:G12)</f>
+        <v>272.16800000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0.59</v>
+      </c>
+      <c r="E13" s="4">
+        <v>2.34</v>
+      </c>
+      <c r="F13" s="4">
+        <v>2.7</v>
+      </c>
+      <c r="G13" s="4">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H13" s="4">
+        <f>SUM(C13:G13)</f>
+        <v>6.18</v>
+      </c>
+      <c r="I13" s="4">
+        <f>AVERAGE(C13:G13)</f>
+        <v>1.236</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="4">
+        <v>93</v>
+      </c>
+      <c r="D14" s="4">
+        <v>485</v>
+      </c>
+      <c r="E14" s="4">
+        <v>161</v>
+      </c>
+      <c r="F14" s="4">
+        <v>131</v>
+      </c>
+      <c r="G14" s="4">
+        <v>487</v>
+      </c>
+      <c r="H14" s="4">
+        <f>SUM(C14:G14)</f>
+        <v>1357</v>
+      </c>
+      <c r="I14" s="4">
+        <f>AVERAGE(C14:G14)</f>
+        <v>271.39999999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="4">
+        <v>94.32</v>
+      </c>
+      <c r="D15" s="4">
+        <v>487.96</v>
+      </c>
+      <c r="E15" s="4">
+        <v>168.28</v>
+      </c>
+      <c r="F15" s="4">
+        <v>141.47999999999999</v>
+      </c>
+      <c r="G15" s="4">
+        <v>490.72</v>
+      </c>
+      <c r="H15" s="4">
+        <f>SUM(C15:G15)</f>
+        <v>1382.76</v>
+      </c>
+      <c r="I15" s="4">
+        <f>AVERAGE(C15:G15)</f>
+        <v>276.55200000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="4">
+        <v>1.6</v>
+      </c>
+      <c r="D16" s="4">
+        <v>1.59</v>
+      </c>
+      <c r="E16" s="4">
+        <v>5.03</v>
+      </c>
+      <c r="F16" s="4">
+        <v>5.37</v>
+      </c>
+      <c r="G16" s="4">
+        <v>2.83</v>
+      </c>
+      <c r="H16" s="4">
+        <f>SUM(C16:G16)</f>
+        <v>16.420000000000002</v>
+      </c>
+      <c r="I16" s="4">
+        <f>AVERAGE(C16:G16)</f>
+        <v>3.2840000000000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A2:A4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>